--- a/database/industries/shoyande/kimiatec/cost/yearly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B899B3-7A1E-4269-8111-72478CD7C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +357,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -368,7 +369,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -415,6 +416,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/shoyande/kimiatec/cost/yearly.xlsx
+++ b/database/industries/shoyande/kimiatec/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B899B3-7A1E-4269-8111-72478CD7C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1581F8E9-9C23-48AE-A1D0-20AAF99F161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>کیلوگرم</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -641,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,95 +753,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1205620</v>
+        <v>1504816</v>
       </c>
       <c r="F10" s="9">
-        <v>1504816</v>
+        <v>3084296</v>
       </c>
       <c r="G10" s="9">
-        <v>3084296</v>
+        <v>6751986</v>
       </c>
       <c r="H10" s="9">
-        <v>6751986</v>
+        <v>8338044</v>
       </c>
       <c r="I10" s="9">
-        <v>8338044</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13972316</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>47305</v>
+        <v>54035</v>
       </c>
       <c r="F11" s="11">
-        <v>54035</v>
+        <v>108977</v>
       </c>
       <c r="G11" s="11">
-        <v>108977</v>
+        <v>223154</v>
       </c>
       <c r="H11" s="11">
-        <v>223154</v>
+        <v>227263</v>
       </c>
       <c r="I11" s="11">
-        <v>227263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>361108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>181212</v>
+        <v>200424</v>
       </c>
       <c r="F12" s="9">
-        <v>200424</v>
+        <v>288357</v>
       </c>
       <c r="G12" s="9">
-        <v>288357</v>
+        <v>519390</v>
       </c>
       <c r="H12" s="9">
-        <v>519390</v>
+        <v>848827</v>
       </c>
       <c r="I12" s="9">
-        <v>848827</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1619553</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1434137</v>
+        <v>1759275</v>
       </c>
       <c r="F13" s="13">
-        <v>1759275</v>
+        <v>3481630</v>
       </c>
       <c r="G13" s="13">
-        <v>3481630</v>
+        <v>7494530</v>
       </c>
       <c r="H13" s="13">
-        <v>7494530</v>
+        <v>9414134</v>
       </c>
       <c r="I13" s="13">
-        <v>9414134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15952977</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -866,29 +863,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1434137</v>
+        <v>1759275</v>
       </c>
       <c r="F15" s="13">
-        <v>1759275</v>
+        <v>3481630</v>
       </c>
       <c r="G15" s="13">
-        <v>3481630</v>
+        <v>7494530</v>
       </c>
       <c r="H15" s="13">
-        <v>7494530</v>
+        <v>9414134</v>
       </c>
       <c r="I15" s="13">
-        <v>9414134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15952977</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -932,95 +929,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1434137</v>
+        <v>1759275</v>
       </c>
       <c r="F18" s="15">
-        <v>1759275</v>
+        <v>3481630</v>
       </c>
       <c r="G18" s="15">
-        <v>3481630</v>
+        <v>7494530</v>
       </c>
       <c r="H18" s="15">
-        <v>7494530</v>
+        <v>9414134</v>
       </c>
       <c r="I18" s="15">
-        <v>9414134</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15952977</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>81219</v>
+        <v>88482</v>
       </c>
       <c r="F19" s="11">
-        <v>88482</v>
+        <v>179650</v>
       </c>
       <c r="G19" s="11">
-        <v>179650</v>
+        <v>388805</v>
       </c>
       <c r="H19" s="11">
-        <v>388805</v>
+        <v>1415352</v>
       </c>
       <c r="I19" s="11">
-        <v>1415352</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1620696</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-88482</v>
+        <v>-179650</v>
       </c>
       <c r="F20" s="9">
-        <v>-179650</v>
+        <v>-388805</v>
       </c>
       <c r="G20" s="9">
-        <v>-388805</v>
+        <v>-1415352</v>
       </c>
       <c r="H20" s="9">
-        <v>-1415352</v>
+        <v>-1620696</v>
       </c>
       <c r="I20" s="9">
-        <v>-1620696</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2409614</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1426874</v>
+        <v>1668107</v>
       </c>
       <c r="F21" s="13">
-        <v>1668107</v>
+        <v>3272475</v>
       </c>
       <c r="G21" s="13">
-        <v>3272475</v>
+        <v>6467983</v>
       </c>
       <c r="H21" s="13">
-        <v>6467983</v>
+        <v>9208790</v>
       </c>
       <c r="I21" s="13">
-        <v>9208790</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15164059</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1042,29 +1039,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1426874</v>
+        <v>1668107</v>
       </c>
       <c r="F23" s="13">
-        <v>1668107</v>
+        <v>3272475</v>
       </c>
       <c r="G23" s="13">
-        <v>3272475</v>
+        <v>6467983</v>
       </c>
       <c r="H23" s="13">
-        <v>6467983</v>
+        <v>9208790</v>
       </c>
       <c r="I23" s="13">
-        <v>9208790</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15164059</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1081,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1123,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,45 +1131,45 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>387180753</v>
       </c>
       <c r="F29" s="9">
-        <v>387180753</v>
+        <v>114929095</v>
       </c>
       <c r="G29" s="9">
-        <v>114929095</v>
+        <v>93597128</v>
       </c>
       <c r="H29" s="9">
-        <v>93597128</v>
+        <v>186530534</v>
       </c>
       <c r="I29" s="9">
-        <v>186530534</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177183635</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>387180753</v>
       </c>
       <c r="F30" s="13">
-        <v>387180753</v>
+        <v>114929095</v>
       </c>
       <c r="G30" s="13">
-        <v>114929095</v>
+        <v>93597128</v>
       </c>
       <c r="H30" s="13">
-        <v>93597128</v>
+        <v>186530534</v>
       </c>
       <c r="I30" s="13">
-        <v>186530534</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177183635</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1182,7 +1179,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1192,7 +1189,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1202,9 +1199,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1224,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1234,7 +1231,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1242,45 +1239,45 @@
         <v>25</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>26</v>
+      <c r="E36" s="9">
+        <v>231354852</v>
       </c>
       <c r="F36" s="9">
-        <v>231354852</v>
+        <v>261039190</v>
       </c>
       <c r="G36" s="9">
-        <v>261039190</v>
+        <v>351009985</v>
       </c>
       <c r="H36" s="9">
-        <v>351009985</v>
+        <v>245849630</v>
       </c>
       <c r="I36" s="9">
-        <v>245849630</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>342982469</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>0</v>
+        <v>231354852</v>
       </c>
       <c r="F37" s="13">
-        <v>231354852</v>
+        <v>261039190</v>
       </c>
       <c r="G37" s="13">
-        <v>261039190</v>
+        <v>351009985</v>
       </c>
       <c r="H37" s="13">
-        <v>351009985</v>
+        <v>245849630</v>
       </c>
       <c r="I37" s="13">
-        <v>245849630</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>342982469</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1290,7 +1287,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1300,7 +1297,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1310,9 +1307,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1332,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1342,7 +1339,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1350,45 +1347,45 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>26</v>
+      <c r="E43" s="9">
+        <v>503606510</v>
       </c>
       <c r="F43" s="9">
-        <v>503606510</v>
+        <v>216803712</v>
       </c>
       <c r="G43" s="9">
-        <v>216803712</v>
+        <v>274504261</v>
       </c>
       <c r="H43" s="9">
-        <v>274504261</v>
+        <v>255196529</v>
       </c>
       <c r="I43" s="9">
-        <v>255196529</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>338406241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>503606510</v>
       </c>
       <c r="F44" s="13">
-        <v>503606510</v>
+        <v>216803712</v>
       </c>
       <c r="G44" s="13">
-        <v>216803712</v>
+        <v>274504261</v>
       </c>
       <c r="H44" s="13">
-        <v>274504261</v>
+        <v>255196529</v>
       </c>
       <c r="I44" s="13">
-        <v>255196529</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>338406241</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1398,7 +1395,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1408,7 +1405,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1418,9 +1415,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1440,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1450,7 +1447,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1458,45 +1455,45 @@
         <v>25</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>26</v>
+      <c r="E50" s="9">
+        <v>114929095</v>
       </c>
       <c r="F50" s="9">
-        <v>114929095</v>
+        <v>159164573</v>
       </c>
       <c r="G50" s="9">
-        <v>159164573</v>
+        <v>170102852</v>
       </c>
       <c r="H50" s="9">
-        <v>170102852</v>
+        <v>177183635</v>
       </c>
       <c r="I50" s="9">
-        <v>177183635</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>181759863</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>0</v>
+        <v>114929095</v>
       </c>
       <c r="F51" s="13">
-        <v>114929095</v>
+        <v>159164573</v>
       </c>
       <c r="G51" s="13">
-        <v>159164573</v>
+        <v>170102852</v>
       </c>
       <c r="H51" s="13">
-        <v>170102852</v>
+        <v>177183635</v>
       </c>
       <c r="I51" s="13">
-        <v>177183635</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>181759863</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1506,7 +1503,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1516,7 +1513,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1526,9 +1523,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1548,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1558,53 +1555,53 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>394975</v>
       </c>
       <c r="F57" s="9">
-        <v>394975</v>
+        <v>807436</v>
       </c>
       <c r="G57" s="9">
-        <v>807436</v>
+        <v>1613193</v>
       </c>
       <c r="H57" s="9">
-        <v>1613193</v>
+        <v>4365495</v>
       </c>
       <c r="I57" s="9">
-        <v>4365495</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3633774</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>394975</v>
       </c>
       <c r="F58" s="13">
-        <v>394975</v>
+        <v>807436</v>
       </c>
       <c r="G58" s="13">
-        <v>807436</v>
+        <v>1613193</v>
       </c>
       <c r="H58" s="13">
-        <v>1613193</v>
+        <v>4365495</v>
       </c>
       <c r="I58" s="13">
-        <v>4365495</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3633774</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1614,7 +1611,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1624,7 +1621,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1634,9 +1631,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1656,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1666,53 +1663,53 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>1917277</v>
       </c>
       <c r="F64" s="9">
-        <v>1917277</v>
+        <v>3863993</v>
       </c>
       <c r="G64" s="9">
-        <v>3863993</v>
+        <v>8285479</v>
       </c>
       <c r="H64" s="9">
-        <v>8285479</v>
+        <v>7606323</v>
       </c>
       <c r="I64" s="9">
-        <v>7606323</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17049006</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>1917277</v>
       </c>
       <c r="F65" s="13">
-        <v>1917277</v>
+        <v>3863993</v>
       </c>
       <c r="G65" s="13">
-        <v>3863993</v>
+        <v>8285479</v>
       </c>
       <c r="H65" s="13">
-        <v>8285479</v>
+        <v>7606323</v>
       </c>
       <c r="I65" s="13">
-        <v>7606323</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17049006</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1722,7 +1719,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1732,7 +1729,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1742,9 +1739,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1764,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1774,53 +1771,53 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>1504816</v>
       </c>
       <c r="F71" s="9">
-        <v>1504816</v>
+        <v>3084296</v>
       </c>
       <c r="G71" s="9">
-        <v>3084296</v>
+        <v>6628961</v>
       </c>
       <c r="H71" s="9">
-        <v>6628961</v>
+        <v>8338044</v>
       </c>
       <c r="I71" s="9">
-        <v>8338044</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13972316</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>0</v>
+        <v>1504816</v>
       </c>
       <c r="F72" s="13">
-        <v>1504816</v>
+        <v>3084296</v>
       </c>
       <c r="G72" s="13">
-        <v>3084296</v>
+        <v>6628961</v>
       </c>
       <c r="H72" s="13">
-        <v>6628961</v>
+        <v>8338044</v>
       </c>
       <c r="I72" s="13">
-        <v>8338044</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13972316</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1830,7 +1827,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1840,7 +1837,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1850,9 +1847,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1872,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1882,53 +1879,53 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>26</v>
+      <c r="E78" s="9">
+        <v>807436</v>
       </c>
       <c r="F78" s="9">
-        <v>807436</v>
+        <v>1587133</v>
       </c>
       <c r="G78" s="9">
-        <v>1587133</v>
+        <v>3269711</v>
       </c>
       <c r="H78" s="9">
-        <v>3269711</v>
+        <v>3633774</v>
       </c>
       <c r="I78" s="9">
-        <v>3633774</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6710464</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>0</v>
+        <v>807436</v>
       </c>
       <c r="F79" s="13">
-        <v>807436</v>
+        <v>1587133</v>
       </c>
       <c r="G79" s="13">
-        <v>1587133</v>
+        <v>3269711</v>
       </c>
       <c r="H79" s="13">
-        <v>3269711</v>
+        <v>3633774</v>
       </c>
       <c r="I79" s="13">
-        <v>3633774</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6710464</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1938,7 +1935,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1948,7 +1945,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1958,9 +1955,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1980,7 +1977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1990,31 +1987,31 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>1020</v>
       </c>
       <c r="F85" s="9">
-        <v>1020</v>
+        <v>7026</v>
       </c>
       <c r="G85" s="9">
-        <v>7026</v>
+        <v>17236</v>
       </c>
       <c r="H85" s="9">
-        <v>17236</v>
+        <v>23404</v>
       </c>
       <c r="I85" s="9">
-        <v>23404</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20509</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2024,7 +2021,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2034,7 +2031,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2044,9 +2041,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2066,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2076,31 +2073,31 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>8287</v>
       </c>
       <c r="F91" s="9">
-        <v>8287</v>
+        <v>14802</v>
       </c>
       <c r="G91" s="9">
-        <v>14802</v>
+        <v>23605</v>
       </c>
       <c r="H91" s="9">
-        <v>23605</v>
+        <v>30939</v>
       </c>
       <c r="I91" s="9">
-        <v>30939</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49708</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2110,7 +2107,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2120,7 +2117,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2130,9 +2127,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2152,7 +2149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2162,31 +2159,31 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
+      <c r="E97" s="9">
+        <v>2988</v>
       </c>
       <c r="F97" s="9">
-        <v>2988</v>
+        <v>14226</v>
       </c>
       <c r="G97" s="9">
-        <v>14226</v>
+        <v>24149</v>
       </c>
       <c r="H97" s="9">
-        <v>24149</v>
+        <v>32673</v>
       </c>
       <c r="I97" s="9">
-        <v>32673</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41289</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2196,7 +2193,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2206,7 +2203,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2216,9 +2213,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2238,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2248,7 +2245,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -2256,23 +2253,23 @@
         <v>25</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+      <c r="E103" s="9">
+        <v>7026</v>
       </c>
       <c r="F103" s="9">
-        <v>7026</v>
+        <v>9972</v>
       </c>
       <c r="G103" s="9">
-        <v>9972</v>
+        <v>19222</v>
       </c>
       <c r="H103" s="9">
-        <v>19222</v>
+        <v>20509</v>
       </c>
       <c r="I103" s="9">
-        <v>20509</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36919</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2282,7 +2279,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2292,7 +2289,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2302,9 +2299,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2324,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2334,31 +2331,31 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>1394</v>
+        <v>2685</v>
       </c>
       <c r="F109" s="9">
-        <v>2685</v>
+        <v>8329</v>
       </c>
       <c r="G109" s="9">
-        <v>8329</v>
+        <v>11631</v>
       </c>
       <c r="H109" s="9">
-        <v>11631</v>
+        <v>12537</v>
       </c>
       <c r="I109" s="9">
-        <v>12537</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41468</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2378,9 +2375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2400,9 +2397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2422,97 +2419,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>16715</v>
+        <v>17518</v>
       </c>
       <c r="F113" s="9">
-        <v>17518</v>
+        <v>14660</v>
       </c>
       <c r="G113" s="9">
-        <v>14660</v>
+        <v>63179</v>
       </c>
       <c r="H113" s="9">
-        <v>63179</v>
+        <v>168762</v>
       </c>
       <c r="I113" s="9">
-        <v>168762</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>431934</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>4516</v>
+        <v>4288</v>
       </c>
       <c r="F114" s="11">
-        <v>4288</v>
+        <v>6838</v>
       </c>
       <c r="G114" s="11">
-        <v>6838</v>
+        <v>10002</v>
       </c>
       <c r="H114" s="11">
-        <v>10002</v>
+        <v>11778</v>
       </c>
       <c r="I114" s="11">
-        <v>11778</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20037</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>28224</v>
+        <v>27996</v>
       </c>
       <c r="F115" s="9">
-        <v>27996</v>
+        <v>28284</v>
       </c>
       <c r="G115" s="9">
-        <v>28284</v>
+        <v>39963</v>
       </c>
       <c r="H115" s="9">
-        <v>39963</v>
+        <v>59661</v>
       </c>
       <c r="I115" s="9">
-        <v>59661</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119661</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>85621</v>
+        <v>99477</v>
       </c>
       <c r="F116" s="11">
-        <v>99477</v>
+        <v>157954</v>
       </c>
       <c r="G116" s="11">
-        <v>157954</v>
+        <v>235467</v>
       </c>
       <c r="H116" s="11">
-        <v>235467</v>
+        <v>391382</v>
       </c>
       <c r="I116" s="11">
-        <v>391382</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>784241</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -2532,65 +2529,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>44742</v>
+        <v>48460</v>
       </c>
       <c r="F118" s="11">
-        <v>48460</v>
+        <v>72292</v>
       </c>
       <c r="G118" s="11">
-        <v>72292</v>
+        <v>159148</v>
       </c>
       <c r="H118" s="11">
-        <v>159148</v>
+        <v>204707</v>
       </c>
       <c r="I118" s="11">
-        <v>204707</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>222212</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>181212</v>
+        <v>200424</v>
       </c>
       <c r="F119" s="15">
-        <v>200424</v>
+        <v>288357</v>
       </c>
       <c r="G119" s="15">
-        <v>288357</v>
+        <v>519390</v>
       </c>
       <c r="H119" s="15">
-        <v>519390</v>
+        <v>848827</v>
       </c>
       <c r="I119" s="15">
-        <v>848827</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1619553</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
